--- a/data/trans_orig/Predimed_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Predimed_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C991DB-A47C-49E5-A294-4A7EBCBB46A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB5A012A-54E9-40A4-A417-43C8F2E0D5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{40B5D1D5-F9DC-416A-954F-B61AD43FA27D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8C2DDF42-C17F-4C9D-A015-C4BFF6BE6D14}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="160">
   <si>
     <t>Población según adherencia a la dieta mediterránea en 2023 (Tasa respuesta: 94,27%)</t>
   </si>
@@ -65,391 +65,454 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Alta</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
   </si>
   <si>
     <t>Baja</t>
   </si>
   <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
   <si>
     <t>17,58%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
   </si>
   <si>
     <t>17,93%</t>
   </si>
   <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
   </si>
   <si>
     <t>82,07%</t>
   </si>
   <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,8 +927,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7FAB22-8909-48C4-800C-E3A0FEEA9E35}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C258A95-6EB3-4F51-869A-40303F0F9265}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -985,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>21206</v>
+        <v>22342</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1000,7 +1063,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>39581</v>
+        <v>34856</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1015,7 +1078,7 @@
         <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>60788</v>
+        <v>57197</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1036,7 +1099,7 @@
         <v>149</v>
       </c>
       <c r="D5" s="7">
-        <v>308596</v>
+        <v>322145</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1051,7 +1114,7 @@
         <v>167</v>
       </c>
       <c r="I5" s="7">
-        <v>277826</v>
+        <v>244072</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1066,7 +1129,7 @@
         <v>316</v>
       </c>
       <c r="N5" s="7">
-        <v>586420</v>
+        <v>566217</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1087,7 +1150,7 @@
         <v>158</v>
       </c>
       <c r="D6" s="7">
-        <v>329802</v>
+        <v>344487</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1102,7 +1165,7 @@
         <v>191</v>
       </c>
       <c r="I6" s="7">
-        <v>317407</v>
+        <v>278928</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1117,7 +1180,7 @@
         <v>349</v>
       </c>
       <c r="N6" s="7">
-        <v>647208</v>
+        <v>623414</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1140,7 +1203,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="7">
-        <v>61859</v>
+        <v>61466</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1155,7 +1218,7 @@
         <v>64</v>
       </c>
       <c r="I7" s="7">
-        <v>72789</v>
+        <v>66799</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1170,7 +1233,7 @@
         <v>104</v>
       </c>
       <c r="N7" s="7">
-        <v>134648</v>
+        <v>128265</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1191,7 +1254,7 @@
         <v>249</v>
       </c>
       <c r="D8" s="7">
-        <v>346687</v>
+        <v>342593</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1206,7 +1269,7 @@
         <v>367</v>
       </c>
       <c r="I8" s="7">
-        <v>393170</v>
+        <v>415183</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1221,7 +1284,7 @@
         <v>616</v>
       </c>
       <c r="N8" s="7">
-        <v>739857</v>
+        <v>757775</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1242,7 +1305,7 @@
         <v>289</v>
       </c>
       <c r="D9" s="7">
-        <v>408546</v>
+        <v>404059</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1257,7 +1320,7 @@
         <v>431</v>
       </c>
       <c r="I9" s="7">
-        <v>465959</v>
+        <v>481982</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1272,7 +1335,7 @@
         <v>720</v>
       </c>
       <c r="N9" s="7">
-        <v>874505</v>
+        <v>886040</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1295,7 +1358,7 @@
         <v>90</v>
       </c>
       <c r="D10" s="7">
-        <v>96762</v>
+        <v>95670</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1310,7 +1373,7 @@
         <v>143</v>
       </c>
       <c r="I10" s="7">
-        <v>97799</v>
+        <v>91695</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1325,7 +1388,7 @@
         <v>233</v>
       </c>
       <c r="N10" s="7">
-        <v>194560</v>
+        <v>187365</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1346,7 +1409,7 @@
         <v>431</v>
       </c>
       <c r="D11" s="7">
-        <v>432226</v>
+        <v>413197</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1361,7 +1424,7 @@
         <v>666</v>
       </c>
       <c r="I11" s="7">
-        <v>458594</v>
+        <v>425696</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1376,7 +1439,7 @@
         <v>1097</v>
       </c>
       <c r="N11" s="7">
-        <v>890820</v>
+        <v>838893</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1397,7 +1460,7 @@
         <v>521</v>
       </c>
       <c r="D12" s="7">
-        <v>528988</v>
+        <v>508867</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1412,7 +1475,7 @@
         <v>809</v>
       </c>
       <c r="I12" s="7">
-        <v>556393</v>
+        <v>517391</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1427,7 +1490,7 @@
         <v>1330</v>
       </c>
       <c r="N12" s="7">
-        <v>1085380</v>
+        <v>1026258</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1450,28 +1513,28 @@
         <v>114</v>
       </c>
       <c r="D13" s="7">
-        <v>109826</v>
+        <v>104996</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>227</v>
       </c>
       <c r="I13" s="7">
-        <v>162184</v>
+        <v>173336</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>74</v>
@@ -1480,7 +1543,7 @@
         <v>341</v>
       </c>
       <c r="N13" s="7">
-        <v>272011</v>
+        <v>278331</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1501,7 +1564,7 @@
         <v>520</v>
       </c>
       <c r="D14" s="7">
-        <v>575447</v>
+        <v>745815</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1510,28 +1573,28 @@
         <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>868</v>
       </c>
       <c r="I14" s="7">
-        <v>554143</v>
+        <v>510638</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>1388</v>
       </c>
       <c r="N14" s="7">
-        <v>1129589</v>
+        <v>1256454</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -1552,7 +1615,7 @@
         <v>634</v>
       </c>
       <c r="D15" s="7">
-        <v>685273</v>
+        <v>850811</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1567,7 +1630,7 @@
         <v>1095</v>
       </c>
       <c r="I15" s="7">
-        <v>716327</v>
+        <v>683974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1582,7 +1645,7 @@
         <v>1729</v>
       </c>
       <c r="N15" s="7">
-        <v>1401600</v>
+        <v>1534785</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1605,7 +1668,7 @@
         <v>115</v>
       </c>
       <c r="D16" s="7">
-        <v>104966</v>
+        <v>99785</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
@@ -1620,31 +1683,31 @@
         <v>189</v>
       </c>
       <c r="I16" s="7">
-        <v>110818</v>
+        <v>102804</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>304</v>
       </c>
       <c r="N16" s="7">
-        <v>215784</v>
+        <v>202589</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,46 +1719,46 @@
         <v>510</v>
       </c>
       <c r="D17" s="7">
-        <v>453670</v>
+        <v>422981</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>767</v>
       </c>
       <c r="I17" s="7">
-        <v>456481</v>
+        <v>417616</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1277</v>
       </c>
       <c r="N17" s="7">
-        <v>910151</v>
+        <v>840597</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,7 +1770,7 @@
         <v>625</v>
       </c>
       <c r="D18" s="7">
-        <v>558636</v>
+        <v>522766</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1722,7 +1785,7 @@
         <v>956</v>
       </c>
       <c r="I18" s="7">
-        <v>567299</v>
+        <v>520420</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1737,7 +1800,7 @@
         <v>1581</v>
       </c>
       <c r="N18" s="7">
-        <v>1125935</v>
+        <v>1043186</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1751,55 +1814,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="D19" s="7">
-        <v>139461</v>
+        <v>85344</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>340</v>
+        <v>207</v>
       </c>
       <c r="I19" s="7">
-        <v>182726</v>
+        <v>99763</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>544</v>
+        <v>339</v>
       </c>
       <c r="N19" s="7">
-        <v>322187</v>
+        <v>185106</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,49 +1871,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>746</v>
+        <v>400</v>
       </c>
       <c r="D20" s="7">
-        <v>499221</v>
+        <v>254216</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>1243</v>
+        <v>585</v>
       </c>
       <c r="I20" s="7">
-        <v>784405</v>
+        <v>492504</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>1989</v>
+        <v>985</v>
       </c>
       <c r="N20" s="7">
-        <v>1283625</v>
+        <v>746721</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,10 +1922,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>950</v>
+        <v>532</v>
       </c>
       <c r="D21" s="7">
-        <v>638682</v>
+        <v>339560</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1874,10 +1937,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1583</v>
+        <v>792</v>
       </c>
       <c r="I21" s="7">
-        <v>967131</v>
+        <v>592267</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1889,10 +1952,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2533</v>
+        <v>1324</v>
       </c>
       <c r="N21" s="7">
-        <v>1605812</v>
+        <v>931827</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1906,55 +1969,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>572</v>
+        <v>72</v>
       </c>
       <c r="D22" s="7">
-        <v>534081</v>
+        <v>46917</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>987</v>
+        <v>133</v>
       </c>
       <c r="I22" s="7">
-        <v>665897</v>
+        <v>66065</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>1559</v>
+        <v>205</v>
       </c>
       <c r="N22" s="7">
-        <v>1199978</v>
+        <v>112982</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,49 +2026,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2605</v>
+        <v>346</v>
       </c>
       <c r="D23" s="7">
-        <v>2615845</v>
+        <v>208896</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>4078</v>
+        <v>658</v>
       </c>
       <c r="I23" s="7">
-        <v>2924619</v>
+        <v>320700</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>6683</v>
+        <v>1004</v>
       </c>
       <c r="N23" s="7">
-        <v>5540464</v>
+        <v>529596</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,63 +2077,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>418</v>
+      </c>
+      <c r="D24" s="7">
+        <v>255813</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>791</v>
+      </c>
+      <c r="I24" s="7">
+        <v>386765</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1209</v>
+      </c>
+      <c r="N24" s="7">
+        <v>642578</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>572</v>
+      </c>
+      <c r="D25" s="7">
+        <v>516519</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>987</v>
+      </c>
+      <c r="I25" s="7">
+        <v>635318</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1559</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1151836</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2605</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2709843</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4078</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2826408</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6683</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5536252</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3177</v>
       </c>
-      <c r="D24" s="7">
-        <v>3149926</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3226362</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5065</v>
       </c>
-      <c r="I24" s="7">
-        <v>3590516</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3461726</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8242</v>
       </c>
-      <c r="N24" s="7">
-        <v>6740442</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="N27" s="7">
+        <v>6688088</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
